--- a/report_template/ticket.xlsx
+++ b/report_template/ticket.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>案件編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,6 +68,18 @@
   <si>
     <t>細分類</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障說明</t>
+  </si>
+  <si>
+    <t>維修經過</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>完成日期</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,19 +502,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="9" width="10.125" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -512,7 +530,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,6 +563,18 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
